--- a/data/trans_dic/P22$concerIndv-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.008475511184361812</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02109421743822744</v>
+        <v>0.02109421743822745</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02294799154653679</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0049280039361274</v>
+        <v>0.004491359892147652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0109451090512361</v>
+        <v>0.01123249775227143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004163052019671464</v>
+        <v>0.00413957695816723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009620780433677017</v>
+        <v>0.00971335378965023</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01455369843512721</v>
+        <v>0.01370467280644374</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01287757532970802</v>
+        <v>0.01320273797425672</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01044823454847938</v>
+        <v>0.01043457186671137</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02548484292864264</v>
+        <v>0.02392267512953751</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01310387944793149</v>
+        <v>0.01198971596657271</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01425306929575991</v>
+        <v>0.01423179923545809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008490306074455297</v>
+        <v>0.008315012947736976</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0201166379475861</v>
+        <v>0.02081503086388762</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02778957014590965</v>
+        <v>0.02813288499024332</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03123731889893025</v>
+        <v>0.03087470817623743</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01726533721446424</v>
+        <v>0.01781140926362097</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03876372754379027</v>
+        <v>0.04115548545404029</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03596035247818925</v>
+        <v>0.03513667205276418</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02934821041415089</v>
+        <v>0.03011579125778844</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02508977929596916</v>
+        <v>0.02625254505065024</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0557039471251696</v>
+        <v>0.05382584930648852</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02809933620535409</v>
+        <v>0.02786684043091396</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02666080770379694</v>
+        <v>0.02718690905892943</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01833559443801112</v>
+        <v>0.01796533372014861</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04147543666123389</v>
+        <v>0.04105333029838196</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03844759757233535</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04222986397434927</v>
+        <v>0.04222986397434926</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009930323836228121</v>
+        <v>0.009144760357986257</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0131109807938707</v>
+        <v>0.01340792677785828</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01921468321080578</v>
+        <v>0.01935217302789577</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01921788492585287</v>
+        <v>0.0197244508933076</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01577771880245927</v>
+        <v>0.0159547363623543</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02141113890951032</v>
+        <v>0.0212300487942428</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03491101708217928</v>
+        <v>0.03336840907395316</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04296732771029307</v>
+        <v>0.04189790731631659</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01442654947371744</v>
+        <v>0.01409645325731397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02029004593650398</v>
+        <v>0.01998034803608952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03050463038731372</v>
+        <v>0.02986515171604908</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03459112696896904</v>
+        <v>0.03391124121961069</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02443928074523328</v>
+        <v>0.02451903297259536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03108602471145759</v>
+        <v>0.0319201183545097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0423425624511779</v>
+        <v>0.04191624076699663</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04177844840193481</v>
+        <v>0.04110537988386924</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03503027685999237</v>
+        <v>0.0336168180799863</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04533359325942214</v>
+        <v>0.0446987132179924</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06386896546784468</v>
+        <v>0.06119516258536894</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06854978342997457</v>
+        <v>0.06792088413891779</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02625566525594864</v>
+        <v>0.02652491764325432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0350970607481398</v>
+        <v>0.03483261322820332</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04821409678602584</v>
+        <v>0.04828483660278776</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05198343632288197</v>
+        <v>0.05120876788197465</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04860694421866138</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08301394017842964</v>
+        <v>0.08301394017842965</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03814926912677966</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01994012438214246</v>
+        <v>0.02010109403236971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02802983623417272</v>
+        <v>0.02719892709658404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03398723582706017</v>
+        <v>0.0354772829575726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03990715605355938</v>
+        <v>0.04011721636300335</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03501053029972034</v>
+        <v>0.035672907779803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0249521536834406</v>
+        <v>0.02503217112175445</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03483076550432505</v>
+        <v>0.03602210326950375</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06934788087863683</v>
+        <v>0.06947828691070684</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03018039213915436</v>
+        <v>0.03065357964403039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0294543730690589</v>
+        <v>0.02959594273521984</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03908598161227482</v>
+        <v>0.03890938230106424</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05819319806241881</v>
+        <v>0.05811486379808606</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03990696902786523</v>
+        <v>0.04161070618980806</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05591267883426989</v>
+        <v>0.05599055167112155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06509609553044808</v>
+        <v>0.06483969007538289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06818313318656288</v>
+        <v>0.06976288663720306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06284359800681916</v>
+        <v>0.06410788950512143</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05252235772924196</v>
+        <v>0.0530673935514286</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06760784086553079</v>
+        <v>0.06626254650033854</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09744682166511887</v>
+        <v>0.09817650671978879</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04739464263242241</v>
+        <v>0.04785630296146027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04843453271450428</v>
+        <v>0.05060249084956157</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0610955265582129</v>
+        <v>0.06008438651954515</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07944005846479328</v>
+        <v>0.07947041411045862</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05653949039519662</v>
+        <v>0.05553924668732984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0489973790683792</v>
+        <v>0.05078658704039836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05288146386063332</v>
+        <v>0.0527125406008802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1178257841812294</v>
+        <v>0.1200071445551464</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07678409186900843</v>
+        <v>0.07810467721008867</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04129973367322133</v>
+        <v>0.04338315993272312</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0787630513480658</v>
+        <v>0.08323243323019429</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1399815728989868</v>
+        <v>0.1388557193103262</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07156428772282222</v>
+        <v>0.07141585584082508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05252498512117782</v>
+        <v>0.0516962392567641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07340815989124956</v>
+        <v>0.07280148705326879</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1347177015697322</v>
+        <v>0.1359593315112334</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1098342581613417</v>
+        <v>0.1083097677785628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.105041751816354</v>
+        <v>0.1025038242235713</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1042795875933197</v>
+        <v>0.1014353662740558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1702260651815815</v>
+        <v>0.1676722300302</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1456040697767082</v>
+        <v>0.1459308949252762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08925349599849236</v>
+        <v>0.09362231795060005</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1391959372709111</v>
+        <v>0.1421980976527197</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1832734764877361</v>
+        <v>0.1795480353384063</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.111990076817223</v>
+        <v>0.1132262924684271</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08821714929817234</v>
+        <v>0.08815367785805826</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.113654115398549</v>
+        <v>0.1126245941004365</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1671102596636968</v>
+        <v>0.1681305218905395</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.04480405995337319</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08500468134741421</v>
+        <v>0.08500468134741422</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03392783802787235</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02279237686594555</v>
+        <v>0.02249773906847293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02634692964598926</v>
+        <v>0.02636250335086255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02793859611655677</v>
+        <v>0.02801672474288043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05874359944347333</v>
+        <v>0.05820898987982041</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03239328988992851</v>
+        <v>0.03310879503328915</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02740127242553549</v>
+        <v>0.02720868603174263</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03790962080637844</v>
+        <v>0.03821771995220486</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07656245742988493</v>
+        <v>0.07709080979242867</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02959975066825955</v>
+        <v>0.02986260967963808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02854967995686933</v>
+        <v>0.02861683073082744</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03507899076678051</v>
+        <v>0.0346521869181049</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07017614374431821</v>
+        <v>0.07047635993978535</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03435212709703794</v>
+        <v>0.03385933949139957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03957592753112738</v>
+        <v>0.03979530216195039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04122037976880559</v>
+        <v>0.04153523101684178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07723373467968164</v>
+        <v>0.07720407004664787</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04743227189609676</v>
+        <v>0.04693633079947446</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04049381162510652</v>
+        <v>0.0407198102214695</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0520497166723036</v>
+        <v>0.05247889849965263</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09335538462211465</v>
+        <v>0.09352371698456076</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03867264190021993</v>
+        <v>0.03898364058443536</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0378669727422598</v>
+        <v>0.03724850394953934</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04425835444516679</v>
+        <v>0.04495455706834164</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08186368110237505</v>
+        <v>0.08192447515757388</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2875</v>
+        <v>2620</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11426</v>
+        <v>11726</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4692</v>
+        <v>4666</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4798</v>
+        <v>4844</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13423</v>
+        <v>12640</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14422</v>
+        <v>14786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13113</v>
+        <v>13096</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15892</v>
+        <v>14918</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19730</v>
+        <v>18052</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30842</v>
+        <v>30796</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20225</v>
+        <v>19807</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22577</v>
+        <v>23361</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16210</v>
+        <v>16411</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32610</v>
+        <v>32231</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19459</v>
+        <v>20075</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19333</v>
+        <v>20526</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33167</v>
+        <v>32408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32868</v>
+        <v>33728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31488</v>
+        <v>32948</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34736</v>
+        <v>33565</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42308</v>
+        <v>41958</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>57690</v>
+        <v>58829</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>43677</v>
+        <v>42795</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>46549</v>
+        <v>46075</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10693</v>
+        <v>9847</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12798</v>
+        <v>13087</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17386</v>
+        <v>17511</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18452</v>
+        <v>18938</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16667</v>
+        <v>16854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23429</v>
+        <v>23231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35093</v>
+        <v>33542</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47945</v>
+        <v>46752</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30774</v>
+        <v>30069</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>42008</v>
+        <v>41366</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>58265</v>
+        <v>57044</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>71811</v>
+        <v>70399</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26315</v>
+        <v>26401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30343</v>
+        <v>31157</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38313</v>
+        <v>37928</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40113</v>
+        <v>39467</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37004</v>
+        <v>35511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49607</v>
+        <v>48912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64201</v>
+        <v>61514</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>76491</v>
+        <v>75789</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56006</v>
+        <v>56581</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>72663</v>
+        <v>72116</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>92091</v>
+        <v>92227</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>107917</v>
+        <v>106309</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22306</v>
+        <v>22486</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24810</v>
+        <v>24074</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27997</v>
+        <v>29225</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41762</v>
+        <v>41982</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34769</v>
+        <v>35426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21853</v>
+        <v>21923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26857</v>
+        <v>27775</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>72652</v>
+        <v>72788</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>63733</v>
+        <v>64732</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>51867</v>
+        <v>52116</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>62335</v>
+        <v>62053</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>121864</v>
+        <v>121700</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44642</v>
+        <v>46548</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49489</v>
+        <v>49558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53623</v>
+        <v>53412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71352</v>
+        <v>73005</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>62409</v>
+        <v>63665</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45999</v>
+        <v>46476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52130</v>
+        <v>51092</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>102089</v>
+        <v>102854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100085</v>
+        <v>101060</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>85289</v>
+        <v>89106</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>97436</v>
+        <v>95824</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>166357</v>
+        <v>166421</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25199</v>
+        <v>24754</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24647</v>
+        <v>25547</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26795</v>
+        <v>26709</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>114990</v>
+        <v>117118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26196</v>
+        <v>26646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18698</v>
+        <v>19641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38570</v>
+        <v>40759</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>127044</v>
+        <v>126022</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56311</v>
+        <v>56194</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>50201</v>
+        <v>49409</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>73144</v>
+        <v>72539</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>253741</v>
+        <v>256080</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48953</v>
+        <v>48273</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52838</v>
+        <v>51562</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52839</v>
+        <v>51397</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>166129</v>
+        <v>163636</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>49674</v>
+        <v>49785</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40408</v>
+        <v>42386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68164</v>
+        <v>69634</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>166335</v>
+        <v>162953</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88120</v>
+        <v>89093</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>84314</v>
+        <v>84254</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>113245</v>
+        <v>112219</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>314753</v>
+        <v>316675</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>73492</v>
+        <v>72542</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>89795</v>
+        <v>89848</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>93940</v>
+        <v>94203</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>204503</v>
+        <v>202642</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>107317</v>
+        <v>109687</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>97075</v>
+        <v>96393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>133479</v>
+        <v>134564</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>282871</v>
+        <v>284823</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>193504</v>
+        <v>195223</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>198446</v>
+        <v>198912</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>241461</v>
+        <v>238523</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>503579</v>
+        <v>505734</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110766</v>
+        <v>109177</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>134881</v>
+        <v>135629</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>138598</v>
+        <v>139657</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>268873</v>
+        <v>268769</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>157140</v>
+        <v>155497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>143458</v>
+        <v>144259</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>183266</v>
+        <v>184778</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>344915</v>
+        <v>345537</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>252817</v>
+        <v>254850</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>263209</v>
+        <v>258910</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>304646</v>
+        <v>309438</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>587448</v>
+        <v>587884</v>
       </c>
     </row>
     <row r="24">
